--- a/1Projects/Blechbiegeapp/04Zeiterfassung/Zeiterfassung_Mai.xlsx
+++ b/1Projects/Blechbiegeapp/04Zeiterfassung/Zeiterfassung_Mai.xlsx
@@ -912,6 +912,27 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
@@ -919,13 +940,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
@@ -947,27 +961,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -1010,6 +1003,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
@@ -1415,6 +1415,46 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1423,63 +1463,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1487,15 +1475,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1503,23 +1495,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1531,11 +1519,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1547,7 +1535,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="25" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="true"/>
     </xf>
@@ -1571,7 +1559,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="2" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="25" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="true"/>
     </xf>
@@ -1613,6 +1601,18 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1914,9 +1914,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>313560</xdr:colOff>
+      <xdr:colOff>313200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>208800</xdr:rowOff>
+      <xdr:rowOff>208440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1930,7 +1930,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3503880" y="47520"/>
-          <a:ext cx="2421720" cy="570960"/>
+          <a:ext cx="2421360" cy="570600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1951,9 +1951,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>399240</xdr:rowOff>
+      <xdr:rowOff>398880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1963,7 +1963,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7200" y="457200"/>
-          <a:ext cx="5316120" cy="351720"/>
+          <a:ext cx="5315760" cy="351360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2015,9 +2015,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2027,7 +2027,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7200" y="746280"/>
-          <a:ext cx="5610600" cy="367200"/>
+          <a:ext cx="5610240" cy="366840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2079,9 +2079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>334440</xdr:colOff>
+      <xdr:colOff>334080</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2091,7 +2091,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1047600"/>
-          <a:ext cx="5946480" cy="351720"/>
+          <a:ext cx="5946120" cy="351360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2158,9 +2158,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>432000</xdr:colOff>
+      <xdr:colOff>431640</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>208800</xdr:rowOff>
+      <xdr:rowOff>208440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2174,7 +2174,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3649320" y="47520"/>
-          <a:ext cx="2394720" cy="570960"/>
+          <a:ext cx="2394360" cy="570600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2195,9 +2195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>255240</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>399240</xdr:rowOff>
+      <xdr:rowOff>398880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2207,7 +2207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7200" y="457200"/>
-          <a:ext cx="5497560" cy="351720"/>
+          <a:ext cx="5497200" cy="351360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2277,9 +2277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
+      <xdr:colOff>265680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2289,7 +2289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7200" y="746280"/>
-          <a:ext cx="5508360" cy="367200"/>
+          <a:ext cx="5508000" cy="366840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2369,9 +2369,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>380160</xdr:colOff>
+      <xdr:colOff>379800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2381,7 +2381,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1047600"/>
-          <a:ext cx="5992200" cy="351720"/>
+          <a:ext cx="5991840" cy="351360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2480,8 +2480,8 @@
   </sheetPr>
   <dimension ref="A1:V77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2508,11 +2508,11 @@
       <c r="K1" s="5"/>
       <c r="L1" s="6" t="n">
         <f aca="false">DATE($J$9,$I$9,1)</f>
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="M1" s="6" t="n">
         <f aca="false">L1-DAY(L1)</f>
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="N1" s="7" t="n">
         <f aca="false">YEAR(L1)</f>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="U1" s="7" t="n">
         <f aca="false">N(DATE(N1,MONTH(L1)+1,DAY(L1))-L1)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2693,7 +2693,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" s="30" t="n">
         <v>2022</v>
@@ -2725,14 +2725,14 @@
       </c>
       <c r="G10" s="10" t="n">
         <f aca="false">COUNTIFS($G$18:$G$48,"",$L$18:$L$48,"=0",$A$18:$A$48,"&lt;="&amp;$I$10)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="10" t="n">
         <f aca="false">EOMONTH(DATE(J$9,I$9,11),0)-EOMONTH(DATE(J$9,I$9,11),-1)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>14</v>
@@ -2942,13 +2942,19 @@
       <c r="U17" s="20"/>
       <c r="V17" s="21"/>
     </row>
-    <row r="18" s="98" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="98" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
+      <c r="B18" s="87" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C18" s="88" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="D18" s="89" t="n">
+        <v>30</v>
+      </c>
       <c r="E18" s="90"/>
       <c r="F18" s="91"/>
       <c r="G18" s="92" t="str">
@@ -2957,14 +2963,14 @@
       </c>
       <c r="H18" s="93" t="n">
         <f aca="false">IF(ISBLANK($F18),ROUNDUP((($C18-$B18)*24-($D18/60)),1)+IF(ISBLANK($E18),0,$L$13)+IF(OR($G18="x",$G18="X"),$L$13,0),$L$13)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18" s="94"/>
       <c r="J18" s="94"/>
       <c r="K18" s="49"/>
       <c r="L18" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A18),2)&gt;5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="95"/>
       <c r="N18" s="96"/>
@@ -2981,27 +2987,33 @@
       <c r="A19" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="104"/>
+      <c r="B19" s="87" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="88" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="D19" s="89" t="n">
+        <v>30</v>
+      </c>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
       <c r="G19" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A19),IF(AND(WEEKDAY($M$1+$A19,2)&lt;6,OR($M$1+$A19=DATE($N$1,1,1),$M$1+$A19=DATE($N$1,1,6),$M$1+$A19=DATE($N$1,5,1),$M$1+$A19=DATE($N$1,10,3),$M$1+$A19=DATE($N$1,11,1),$M$1+$A19=DATE($N$1,12,24),$M$1+$A19=DATE($N$1,12,25),$M$1+$A19=DATE($N$1,12,26),$M$1+$A19=DATE($N$1,12,31),$M$1+$A19=$T$1-2,$M$1+$A19=$T$1+1,$M$1+$A19=$T$1+39,$M$1+$A19=$T$1+50,$M$1+$A19=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H19" s="105" t="n">
+      <c r="H19" s="102" t="n">
         <f aca="false">IF(ISBLANK($F19),ROUNDUP((($C19-$B19)*24-($D19/60)),1)+IF(ISBLANK($E19),0,$L$13)+IF(OR($G19="x",$G19="X"),$L$13,0),$L$13)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
+        <v>3</v>
+      </c>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
       <c r="K19" s="49"/>
       <c r="L19" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A19),2)&gt;5)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="107"/>
+      <c r="M19" s="104"/>
       <c r="N19" s="96"/>
       <c r="O19" s="96"/>
       <c r="P19" s="96"/>
@@ -3012,25 +3024,31 @@
       <c r="U19" s="96"/>
       <c r="V19" s="97"/>
     </row>
-    <row r="20" s="98" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="98" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
+      <c r="B20" s="87" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C20" s="88" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="D20" s="89" t="n">
+        <v>30</v>
+      </c>
+      <c r="E20" s="100"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A20),IF(AND(WEEKDAY($M$1+$A20,2)&lt;6,OR($M$1+$A20=DATE($N$1,1,1),$M$1+$A20=DATE($N$1,1,6),$M$1+$A20=DATE($N$1,5,1),$M$1+$A20=DATE($N$1,10,3),$M$1+$A20=DATE($N$1,11,1),$M$1+$A20=DATE($N$1,12,24),$M$1+$A20=DATE($N$1,12,25),$M$1+$A20=DATE($N$1,12,26),$M$1+$A20=DATE($N$1,12,31),$M$1+$A20=$T$1-2,$M$1+$A20=$T$1+1,$M$1+$A20=$T$1+39,$M$1+$A20=$T$1+50,$M$1+$A20=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H20" s="105" t="n">
+      <c r="H20" s="102" t="n">
         <f aca="false">IF(ISBLANK($F20),ROUNDUP((($C20-$B20)*24-($D20/60)),1)+IF(ISBLANK($E20),0,$L$13)+IF(OR($G20="x",$G20="X"),$L$13,0),$L$13)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
+        <v>3</v>
+      </c>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
       <c r="K20" s="49"/>
       <c r="L20" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A20),2)&gt;5)</f>
@@ -3051,25 +3069,25 @@
       <c r="A21" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A21),IF(AND(WEEKDAY($M$1+$A21,2)&lt;6,OR($M$1+$A21=DATE($N$1,1,1),$M$1+$A21=DATE($N$1,1,6),$M$1+$A21=DATE($N$1,5,1),$M$1+$A21=DATE($N$1,10,3),$M$1+$A21=DATE($N$1,11,1),$M$1+$A21=DATE($N$1,12,24),$M$1+$A21=DATE($N$1,12,25),$M$1+$A21=DATE($N$1,12,26),$M$1+$A21=DATE($N$1,12,31),$M$1+$A21=$T$1-2,$M$1+$A21=$T$1+1,$M$1+$A21=$T$1+39,$M$1+$A21=$T$1+50,$M$1+$A21=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H21" s="105" t="n">
+      <c r="H21" s="102" t="n">
         <f aca="false">IF(ISBLANK($F21),ROUNDUP((($C21-$B21)*24-($D21/60)),1)+IF(ISBLANK($E21),0,$L$13)+IF(OR($G21="x",$G21="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
       <c r="K21" s="49"/>
       <c r="L21" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A21),2)&gt;5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="95"/>
       <c r="N21" s="96"/>
@@ -3086,25 +3104,25 @@
       <c r="A22" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A22),IF(AND(WEEKDAY($M$1+$A22,2)&lt;6,OR($M$1+$A22=DATE($N$1,1,1),$M$1+$A22=DATE($N$1,1,6),$M$1+$A22=DATE($N$1,5,1),$M$1+$A22=DATE($N$1,10,3),$M$1+$A22=DATE($N$1,11,1),$M$1+$A22=DATE($N$1,12,24),$M$1+$A22=DATE($N$1,12,25),$M$1+$A22=DATE($N$1,12,26),$M$1+$A22=DATE($N$1,12,31),$M$1+$A22=$T$1-2,$M$1+$A22=$T$1+1,$M$1+$A22=$T$1+39,$M$1+$A22=$T$1+50,$M$1+$A22=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H22" s="105" t="n">
+      <c r="H22" s="102" t="n">
         <f aca="false">IF(ISBLANK($F22),ROUNDUP((($C22-$B22)*24-($D22/60)),1)+IF(ISBLANK($E22),0,$L$13)+IF(OR($G22="x",$G22="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
       <c r="K22" s="49"/>
       <c r="L22" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A22),2)&gt;5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="95"/>
       <c r="N22" s="96"/>
@@ -3121,21 +3139,21 @@
       <c r="A23" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A23),IF(AND(WEEKDAY($M$1+$A23,2)&lt;6,OR($M$1+$A23=DATE($N$1,1,1),$M$1+$A23=DATE($N$1,1,6),$M$1+$A23=DATE($N$1,5,1),$M$1+$A23=DATE($N$1,10,3),$M$1+$A23=DATE($N$1,11,1),$M$1+$A23=DATE($N$1,12,24),$M$1+$A23=DATE($N$1,12,25),$M$1+$A23=DATE($N$1,12,26),$M$1+$A23=DATE($N$1,12,31),$M$1+$A23=$T$1-2,$M$1+$A23=$T$1+1,$M$1+$A23=$T$1+39,$M$1+$A23=$T$1+50,$M$1+$A23=$T$1+60)),"x",""),"")</f>
-        <v/>
-      </c>
-      <c r="H23" s="105" t="n">
+        <v>x</v>
+      </c>
+      <c r="H23" s="102" t="n">
         <f aca="false">IF(ISBLANK($F23),ROUNDUP((($C23-$B23)*24-($D23/60)),1)+IF(ISBLANK($E23),0,$L$13)+IF(OR($G23="x",$G23="X"),$L$13,0),$L$13)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
+        <v>1.83992640294388</v>
+      </c>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
       <c r="K23" s="49"/>
       <c r="L23" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A23),2)&gt;5)</f>
@@ -3152,29 +3170,35 @@
       <c r="U23" s="96"/>
       <c r="V23" s="97"/>
     </row>
-    <row r="24" s="98" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="98" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
+      <c r="B24" s="87" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C24" s="88" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="D24" s="89" t="n">
+        <v>30</v>
+      </c>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
       <c r="G24" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A24),IF(AND(WEEKDAY($M$1+$A24,2)&lt;6,OR($M$1+$A24=DATE($N$1,1,1),$M$1+$A24=DATE($N$1,1,6),$M$1+$A24=DATE($N$1,5,1),$M$1+$A24=DATE($N$1,10,3),$M$1+$A24=DATE($N$1,11,1),$M$1+$A24=DATE($N$1,12,24),$M$1+$A24=DATE($N$1,12,25),$M$1+$A24=DATE($N$1,12,26),$M$1+$A24=DATE($N$1,12,31),$M$1+$A24=$T$1-2,$M$1+$A24=$T$1+1,$M$1+$A24=$T$1+39,$M$1+$A24=$T$1+50,$M$1+$A24=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H24" s="105" t="n">
+      <c r="H24" s="102" t="n">
         <f aca="false">IF(ISBLANK($F24),ROUNDUP((($C24-$B24)*24-($D24/60)),1)+IF(ISBLANK($E24),0,$L$13)+IF(OR($G24="x",$G24="X"),$L$13,0),$L$13)</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
+        <v>3</v>
+      </c>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
       <c r="K24" s="49"/>
       <c r="L24" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A24),2)&gt;5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="95"/>
       <c r="N24" s="96"/>
@@ -3187,29 +3211,35 @@
       <c r="U24" s="96"/>
       <c r="V24" s="97"/>
     </row>
-    <row r="25" s="98" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="98" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="B25" s="100"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="104"/>
+      <c r="B25" s="87" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C25" s="88" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="D25" s="89" t="n">
+        <v>30</v>
+      </c>
+      <c r="E25" s="100"/>
+      <c r="F25" s="101"/>
       <c r="G25" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A25),IF(AND(WEEKDAY($M$1+$A25,2)&lt;6,OR($M$1+$A25=DATE($N$1,1,1),$M$1+$A25=DATE($N$1,1,6),$M$1+$A25=DATE($N$1,5,1),$M$1+$A25=DATE($N$1,10,3),$M$1+$A25=DATE($N$1,11,1),$M$1+$A25=DATE($N$1,12,24),$M$1+$A25=DATE($N$1,12,25),$M$1+$A25=DATE($N$1,12,26),$M$1+$A25=DATE($N$1,12,31),$M$1+$A25=$T$1-2,$M$1+$A25=$T$1+1,$M$1+$A25=$T$1+39,$M$1+$A25=$T$1+50,$M$1+$A25=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H25" s="105" t="n">
+      <c r="H25" s="102" t="n">
         <f aca="false">IF(ISBLANK($F25),ROUNDUP((($C25-$B25)*24-($D25/60)),1)+IF(ISBLANK($E25),0,$L$13)+IF(OR($G25="x",$G25="X"),$L$13,0),$L$13)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
+        <v>3</v>
+      </c>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
       <c r="K25" s="49"/>
       <c r="L25" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A25),2)&gt;5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="95"/>
       <c r="N25" s="96"/>
@@ -3226,21 +3256,21 @@
       <c r="A26" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101"/>
       <c r="G26" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A26),IF(AND(WEEKDAY($M$1+$A26,2)&lt;6,OR($M$1+$A26=DATE($N$1,1,1),$M$1+$A26=DATE($N$1,1,6),$M$1+$A26=DATE($N$1,5,1),$M$1+$A26=DATE($N$1,10,3),$M$1+$A26=DATE($N$1,11,1),$M$1+$A26=DATE($N$1,12,24),$M$1+$A26=DATE($N$1,12,25),$M$1+$A26=DATE($N$1,12,26),$M$1+$A26=DATE($N$1,12,31),$M$1+$A26=$T$1-2,$M$1+$A26=$T$1+1,$M$1+$A26=$T$1+39,$M$1+$A26=$T$1+50,$M$1+$A26=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H26" s="105" t="n">
+      <c r="H26" s="102" t="n">
         <f aca="false">IF(ISBLANK($F26),ROUNDUP((($C26-$B26)*24-($D26/60)),1)+IF(ISBLANK($E26),0,$L$13)+IF(OR($G26="x",$G26="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
       <c r="K26" s="49"/>
       <c r="L26" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A26),2)&gt;5)</f>
@@ -3261,21 +3291,21 @@
       <c r="A27" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="B27" s="100"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="104"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="101"/>
       <c r="G27" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A27),IF(AND(WEEKDAY($M$1+$A27,2)&lt;6,OR($M$1+$A27=DATE($N$1,1,1),$M$1+$A27=DATE($N$1,1,6),$M$1+$A27=DATE($N$1,5,1),$M$1+$A27=DATE($N$1,10,3),$M$1+$A27=DATE($N$1,11,1),$M$1+$A27=DATE($N$1,12,24),$M$1+$A27=DATE($N$1,12,25),$M$1+$A27=DATE($N$1,12,26),$M$1+$A27=DATE($N$1,12,31),$M$1+$A27=$T$1-2,$M$1+$A27=$T$1+1,$M$1+$A27=$T$1+39,$M$1+$A27=$T$1+50,$M$1+$A27=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H27" s="105" t="n">
+      <c r="H27" s="102" t="n">
         <f aca="false">IF(ISBLANK($F27),ROUNDUP((($C27-$B27)*24-($D27/60)),1)+IF(ISBLANK($E27),0,$L$13)+IF(OR($G27="x",$G27="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
       <c r="K27" s="49"/>
       <c r="L27" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A27),2)&gt;5)</f>
@@ -3296,25 +3326,25 @@
       <c r="A28" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="104"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
       <c r="G28" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A28),IF(AND(WEEKDAY($M$1+$A28,2)&lt;6,OR($M$1+$A28=DATE($N$1,1,1),$M$1+$A28=DATE($N$1,1,6),$M$1+$A28=DATE($N$1,5,1),$M$1+$A28=DATE($N$1,10,3),$M$1+$A28=DATE($N$1,11,1),$M$1+$A28=DATE($N$1,12,24),$M$1+$A28=DATE($N$1,12,25),$M$1+$A28=DATE($N$1,12,26),$M$1+$A28=DATE($N$1,12,31),$M$1+$A28=$T$1-2,$M$1+$A28=$T$1+1,$M$1+$A28=$T$1+39,$M$1+$A28=$T$1+50,$M$1+$A28=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H28" s="105" t="n">
+      <c r="H28" s="102" t="n">
         <f aca="false">IF(ISBLANK($F28),ROUNDUP((($C28-$B28)*24-($D28/60)),1)+IF(ISBLANK($E28),0,$L$13)+IF(OR($G28="x",$G28="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
       <c r="K28" s="49"/>
       <c r="L28" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A28),2)&gt;5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="95"/>
       <c r="N28" s="96"/>
@@ -3331,25 +3361,25 @@
       <c r="A29" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="B29" s="100"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="104"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="101"/>
       <c r="G29" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A29),IF(AND(WEEKDAY($M$1+$A29,2)&lt;6,OR($M$1+$A29=DATE($N$1,1,1),$M$1+$A29=DATE($N$1,1,6),$M$1+$A29=DATE($N$1,5,1),$M$1+$A29=DATE($N$1,10,3),$M$1+$A29=DATE($N$1,11,1),$M$1+$A29=DATE($N$1,12,24),$M$1+$A29=DATE($N$1,12,25),$M$1+$A29=DATE($N$1,12,26),$M$1+$A29=DATE($N$1,12,31),$M$1+$A29=$T$1-2,$M$1+$A29=$T$1+1,$M$1+$A29=$T$1+39,$M$1+$A29=$T$1+50,$M$1+$A29=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H29" s="105" t="n">
+      <c r="H29" s="102" t="n">
         <f aca="false">IF(ISBLANK($F29),ROUNDUP((($C29-$B29)*24-($D29/60)),1)+IF(ISBLANK($E29),0,$L$13)+IF(OR($G29="x",$G29="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
       <c r="K29" s="49"/>
       <c r="L29" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A29),2)&gt;5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="95"/>
       <c r="N29" s="96"/>
@@ -3362,25 +3392,31 @@
       <c r="U29" s="96"/>
       <c r="V29" s="97"/>
     </row>
-    <row r="30" s="98" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="98" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="B30" s="100"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="104"/>
+      <c r="B30" s="87" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C30" s="88" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="D30" s="89" t="n">
+        <v>30</v>
+      </c>
+      <c r="E30" s="100"/>
+      <c r="F30" s="101"/>
       <c r="G30" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A30),IF(AND(WEEKDAY($M$1+$A30,2)&lt;6,OR($M$1+$A30=DATE($N$1,1,1),$M$1+$A30=DATE($N$1,1,6),$M$1+$A30=DATE($N$1,5,1),$M$1+$A30=DATE($N$1,10,3),$M$1+$A30=DATE($N$1,11,1),$M$1+$A30=DATE($N$1,12,24),$M$1+$A30=DATE($N$1,12,25),$M$1+$A30=DATE($N$1,12,26),$M$1+$A30=DATE($N$1,12,31),$M$1+$A30=$T$1-2,$M$1+$A30=$T$1+1,$M$1+$A30=$T$1+39,$M$1+$A30=$T$1+50,$M$1+$A30=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H30" s="105" t="n">
+      <c r="H30" s="102" t="n">
         <f aca="false">IF(ISBLANK($F30),ROUNDUP((($C30-$B30)*24-($D30/60)),1)+IF(ISBLANK($E30),0,$L$13)+IF(OR($G30="x",$G30="X"),$L$13,0),$L$13)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
+        <v>3</v>
+      </c>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
       <c r="K30" s="49"/>
       <c r="L30" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A30),2)&gt;5)</f>
@@ -3397,29 +3433,35 @@
       <c r="U30" s="96"/>
       <c r="V30" s="97"/>
     </row>
-    <row r="31" s="98" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="98" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="104"/>
+      <c r="B31" s="87" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C31" s="88" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="D31" s="89" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" s="100"/>
+      <c r="F31" s="101"/>
       <c r="G31" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A31),IF(AND(WEEKDAY($M$1+$A31,2)&lt;6,OR($M$1+$A31=DATE($N$1,1,1),$M$1+$A31=DATE($N$1,1,6),$M$1+$A31=DATE($N$1,5,1),$M$1+$A31=DATE($N$1,10,3),$M$1+$A31=DATE($N$1,11,1),$M$1+$A31=DATE($N$1,12,24),$M$1+$A31=DATE($N$1,12,25),$M$1+$A31=DATE($N$1,12,26),$M$1+$A31=DATE($N$1,12,31),$M$1+$A31=$T$1-2,$M$1+$A31=$T$1+1,$M$1+$A31=$T$1+39,$M$1+$A31=$T$1+50,$M$1+$A31=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H31" s="105" t="n">
+      <c r="H31" s="102" t="n">
         <f aca="false">IF(ISBLANK($F31),ROUNDUP((($C31-$B31)*24-($D31/60)),1)+IF(ISBLANK($E31),0,$L$13)+IF(OR($G31="x",$G31="X"),$L$13,0),$L$13)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
+        <v>3</v>
+      </c>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
       <c r="K31" s="49"/>
       <c r="L31" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A31),2)&gt;5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="95"/>
       <c r="N31" s="96"/>
@@ -3436,25 +3478,25 @@
       <c r="A32" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="104"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
       <c r="G32" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A32),IF(AND(WEEKDAY($M$1+$A32,2)&lt;6,OR($M$1+$A32=DATE($N$1,1,1),$M$1+$A32=DATE($N$1,1,6),$M$1+$A32=DATE($N$1,5,1),$M$1+$A32=DATE($N$1,10,3),$M$1+$A32=DATE($N$1,11,1),$M$1+$A32=DATE($N$1,12,24),$M$1+$A32=DATE($N$1,12,25),$M$1+$A32=DATE($N$1,12,26),$M$1+$A32=DATE($N$1,12,31),$M$1+$A32=$T$1-2,$M$1+$A32=$T$1+1,$M$1+$A32=$T$1+39,$M$1+$A32=$T$1+50,$M$1+$A32=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H32" s="105" t="n">
+      <c r="H32" s="102" t="n">
         <f aca="false">IF(ISBLANK($F32),ROUNDUP((($C32-$B32)*24-($D32/60)),1)+IF(ISBLANK($E32),0,$L$13)+IF(OR($G32="x",$G32="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
       <c r="K32" s="49"/>
       <c r="L32" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A32),2)&gt;5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="95"/>
       <c r="N32" s="96"/>
@@ -3471,27 +3513,21 @@
       <c r="A33" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="B33" s="100" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="C33" s="101" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="D33" s="102" t="n">
-        <v>30</v>
-      </c>
-      <c r="E33" s="103"/>
-      <c r="F33" s="104"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="101"/>
       <c r="G33" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A33),IF(AND(WEEKDAY($M$1+$A33,2)&lt;6,OR($M$1+$A33=DATE($N$1,1,1),$M$1+$A33=DATE($N$1,1,6),$M$1+$A33=DATE($N$1,5,1),$M$1+$A33=DATE($N$1,10,3),$M$1+$A33=DATE($N$1,11,1),$M$1+$A33=DATE($N$1,12,24),$M$1+$A33=DATE($N$1,12,25),$M$1+$A33=DATE($N$1,12,26),$M$1+$A33=DATE($N$1,12,31),$M$1+$A33=$T$1-2,$M$1+$A33=$T$1+1,$M$1+$A33=$T$1+39,$M$1+$A33=$T$1+50,$M$1+$A33=$T$1+60)),"x",""),"")</f>
-        <v/>
-      </c>
-      <c r="H33" s="105" t="n">
+        <v>x</v>
+      </c>
+      <c r="H33" s="102" t="n">
         <f aca="false">IF(ISBLANK($F33),ROUNDUP((($C33-$B33)*24-($D33/60)),1)+IF(ISBLANK($E33),0,$L$13)+IF(OR($G33="x",$G33="X"),$L$13,0),$L$13)</f>
-        <v>7</v>
-      </c>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
+        <v>1.83992640294388</v>
+      </c>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
       <c r="K33" s="49"/>
       <c r="L33" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A33),2)&gt;5)</f>
@@ -3512,27 +3548,27 @@
       <c r="A34" s="99" t="n">
         <v>17</v>
       </c>
-      <c r="B34" s="100" t="n">
+      <c r="B34" s="87" t="n">
         <v>0.375</v>
       </c>
-      <c r="C34" s="101" t="n">
+      <c r="C34" s="88" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="D34" s="102" t="n">
+      <c r="D34" s="89" t="n">
         <v>30</v>
       </c>
-      <c r="E34" s="103"/>
-      <c r="F34" s="104"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="101"/>
       <c r="G34" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A34),IF(AND(WEEKDAY($M$1+$A34,2)&lt;6,OR($M$1+$A34=DATE($N$1,1,1),$M$1+$A34=DATE($N$1,1,6),$M$1+$A34=DATE($N$1,5,1),$M$1+$A34=DATE($N$1,10,3),$M$1+$A34=DATE($N$1,11,1),$M$1+$A34=DATE($N$1,12,24),$M$1+$A34=DATE($N$1,12,25),$M$1+$A34=DATE($N$1,12,26),$M$1+$A34=DATE($N$1,12,31),$M$1+$A34=$T$1-2,$M$1+$A34=$T$1+1,$M$1+$A34=$T$1+39,$M$1+$A34=$T$1+50,$M$1+$A34=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H34" s="105" t="n">
+      <c r="H34" s="102" t="n">
         <f aca="false">IF(ISBLANK($F34),ROUNDUP((($C34-$B34)*24-($D34/60)),1)+IF(ISBLANK($E34),0,$L$13)+IF(OR($G34="x",$G34="X"),$L$13,0),$L$13)</f>
         <v>3</v>
       </c>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
       <c r="K34" s="49"/>
       <c r="L34" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A34),2)&gt;5)</f>
@@ -3553,31 +3589,31 @@
       <c r="A35" s="99" t="n">
         <v>18</v>
       </c>
-      <c r="B35" s="100" t="n">
+      <c r="B35" s="87" t="n">
         <v>0.375</v>
       </c>
-      <c r="C35" s="101" t="n">
+      <c r="C35" s="88" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="D35" s="102" t="n">
+      <c r="D35" s="89" t="n">
         <v>30</v>
       </c>
-      <c r="E35" s="103"/>
-      <c r="F35" s="104"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="101"/>
       <c r="G35" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A35),IF(AND(WEEKDAY($M$1+$A35,2)&lt;6,OR($M$1+$A35=DATE($N$1,1,1),$M$1+$A35=DATE($N$1,1,6),$M$1+$A35=DATE($N$1,5,1),$M$1+$A35=DATE($N$1,10,3),$M$1+$A35=DATE($N$1,11,1),$M$1+$A35=DATE($N$1,12,24),$M$1+$A35=DATE($N$1,12,25),$M$1+$A35=DATE($N$1,12,26),$M$1+$A35=DATE($N$1,12,31),$M$1+$A35=$T$1-2,$M$1+$A35=$T$1+1,$M$1+$A35=$T$1+39,$M$1+$A35=$T$1+50,$M$1+$A35=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H35" s="105" t="n">
+      <c r="H35" s="102" t="n">
         <f aca="false">IF(ISBLANK($F35),ROUNDUP((($C35-$B35)*24-($D35/60)),1)+IF(ISBLANK($E35),0,$L$13)+IF(OR($G35="x",$G35="X"),$L$13,0),$L$13)</f>
         <v>3</v>
       </c>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
       <c r="K35" s="49"/>
       <c r="L35" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A35),2)&gt;5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="95"/>
       <c r="N35" s="96"/>
@@ -3594,25 +3630,25 @@
       <c r="A36" s="99" t="n">
         <v>19</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="104"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="101"/>
       <c r="G36" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A36),IF(AND(WEEKDAY($M$1+$A36,2)&lt;6,OR($M$1+$A36=DATE($N$1,1,1),$M$1+$A36=DATE($N$1,1,6),$M$1+$A36=DATE($N$1,5,1),$M$1+$A36=DATE($N$1,10,3),$M$1+$A36=DATE($N$1,11,1),$M$1+$A36=DATE($N$1,12,24),$M$1+$A36=DATE($N$1,12,25),$M$1+$A36=DATE($N$1,12,26),$M$1+$A36=DATE($N$1,12,31),$M$1+$A36=$T$1-2,$M$1+$A36=$T$1+1,$M$1+$A36=$T$1+39,$M$1+$A36=$T$1+50,$M$1+$A36=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H36" s="105" t="n">
+      <c r="H36" s="102" t="n">
         <f aca="false">IF(ISBLANK($F36),ROUNDUP((($C36-$B36)*24-($D36/60)),1)+IF(ISBLANK($E36),0,$L$13)+IF(OR($G36="x",$G36="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
       <c r="K36" s="49"/>
       <c r="L36" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A36),2)&gt;5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="95"/>
       <c r="N36" s="96"/>
@@ -3629,21 +3665,21 @@
       <c r="A37" s="99" t="n">
         <v>20</v>
       </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="104"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="101"/>
       <c r="G37" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A37),IF(AND(WEEKDAY($M$1+$A37,2)&lt;6,OR($M$1+$A37=DATE($N$1,1,1),$M$1+$A37=DATE($N$1,1,6),$M$1+$A37=DATE($N$1,5,1),$M$1+$A37=DATE($N$1,10,3),$M$1+$A37=DATE($N$1,11,1),$M$1+$A37=DATE($N$1,12,24),$M$1+$A37=DATE($N$1,12,25),$M$1+$A37=DATE($N$1,12,26),$M$1+$A37=DATE($N$1,12,31),$M$1+$A37=$T$1-2,$M$1+$A37=$T$1+1,$M$1+$A37=$T$1+39,$M$1+$A37=$T$1+50,$M$1+$A37=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H37" s="105" t="n">
+      <c r="H37" s="102" t="n">
         <f aca="false">IF(ISBLANK($F37),ROUNDUP((($C37-$B37)*24-($D37/60)),1)+IF(ISBLANK($E37),0,$L$13)+IF(OR($G37="x",$G37="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
       <c r="K37" s="49"/>
       <c r="L37" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A37),2)&gt;5)</f>
@@ -3664,25 +3700,25 @@
       <c r="A38" s="99" t="n">
         <v>21</v>
       </c>
-      <c r="B38" s="100"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="104"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="101"/>
       <c r="G38" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A38),IF(AND(WEEKDAY($M$1+$A38,2)&lt;6,OR($M$1+$A38=DATE($N$1,1,1),$M$1+$A38=DATE($N$1,1,6),$M$1+$A38=DATE($N$1,5,1),$M$1+$A38=DATE($N$1,10,3),$M$1+$A38=DATE($N$1,11,1),$M$1+$A38=DATE($N$1,12,24),$M$1+$A38=DATE($N$1,12,25),$M$1+$A38=DATE($N$1,12,26),$M$1+$A38=DATE($N$1,12,31),$M$1+$A38=$T$1-2,$M$1+$A38=$T$1+1,$M$1+$A38=$T$1+39,$M$1+$A38=$T$1+50,$M$1+$A38=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H38" s="105" t="n">
+      <c r="H38" s="102" t="n">
         <f aca="false">IF(ISBLANK($F38),ROUNDUP((($C38-$B38)*24-($D38/60)),1)+IF(ISBLANK($E38),0,$L$13)+IF(OR($G38="x",$G38="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
       <c r="K38" s="49"/>
       <c r="L38" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A38),2)&gt;5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="95"/>
       <c r="N38" s="96"/>
@@ -3699,25 +3735,25 @@
       <c r="A39" s="99" t="n">
         <v>22</v>
       </c>
-      <c r="B39" s="100"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="104"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="101"/>
       <c r="G39" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A39),IF(AND(WEEKDAY($M$1+$A39,2)&lt;6,OR($M$1+$A39=DATE($N$1,1,1),$M$1+$A39=DATE($N$1,1,6),$M$1+$A39=DATE($N$1,5,1),$M$1+$A39=DATE($N$1,10,3),$M$1+$A39=DATE($N$1,11,1),$M$1+$A39=DATE($N$1,12,24),$M$1+$A39=DATE($N$1,12,25),$M$1+$A39=DATE($N$1,12,26),$M$1+$A39=DATE($N$1,12,31),$M$1+$A39=$T$1-2,$M$1+$A39=$T$1+1,$M$1+$A39=$T$1+39,$M$1+$A39=$T$1+50,$M$1+$A39=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H39" s="105" t="n">
+      <c r="H39" s="102" t="n">
         <f aca="false">IF(ISBLANK($F39),ROUNDUP((($C39-$B39)*24-($D39/60)),1)+IF(ISBLANK($E39),0,$L$13)+IF(OR($G39="x",$G39="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
       <c r="K39" s="49"/>
       <c r="L39" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A39),2)&gt;5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="95"/>
       <c r="N39" s="96"/>
@@ -3734,27 +3770,27 @@
       <c r="A40" s="99" t="n">
         <v>23</v>
       </c>
-      <c r="B40" s="100" t="n">
+      <c r="B40" s="87" t="n">
         <v>0.375</v>
       </c>
-      <c r="C40" s="101" t="n">
+      <c r="C40" s="88" t="n">
         <v>0.6875</v>
       </c>
-      <c r="D40" s="102" t="n">
+      <c r="D40" s="89" t="n">
         <v>30</v>
       </c>
-      <c r="E40" s="103"/>
-      <c r="F40" s="104"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="101"/>
       <c r="G40" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A40),IF(AND(WEEKDAY($M$1+$A40,2)&lt;6,OR($M$1+$A40=DATE($N$1,1,1),$M$1+$A40=DATE($N$1,1,6),$M$1+$A40=DATE($N$1,5,1),$M$1+$A40=DATE($N$1,10,3),$M$1+$A40=DATE($N$1,11,1),$M$1+$A40=DATE($N$1,12,24),$M$1+$A40=DATE($N$1,12,25),$M$1+$A40=DATE($N$1,12,26),$M$1+$A40=DATE($N$1,12,31),$M$1+$A40=$T$1-2,$M$1+$A40=$T$1+1,$M$1+$A40=$T$1+39,$M$1+$A40=$T$1+50,$M$1+$A40=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H40" s="105" t="n">
+      <c r="H40" s="102" t="n">
         <f aca="false">IF(ISBLANK($F40),ROUNDUP((($C40-$B40)*24-($D40/60)),1)+IF(ISBLANK($E40),0,$L$13)+IF(OR($G40="x",$G40="X"),$L$13,0),$L$13)</f>
         <v>7</v>
       </c>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
       <c r="K40" s="49"/>
       <c r="L40" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A40),2)&gt;5)</f>
@@ -3775,27 +3811,27 @@
       <c r="A41" s="99" t="n">
         <v>24</v>
       </c>
-      <c r="B41" s="100" t="n">
+      <c r="B41" s="87" t="n">
         <v>0.375</v>
       </c>
-      <c r="C41" s="101" t="n">
+      <c r="C41" s="88" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="D41" s="102" t="n">
+      <c r="D41" s="89" t="n">
         <v>30</v>
       </c>
-      <c r="E41" s="103"/>
-      <c r="F41" s="104"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="101"/>
       <c r="G41" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A41),IF(AND(WEEKDAY($M$1+$A41,2)&lt;6,OR($M$1+$A41=DATE($N$1,1,1),$M$1+$A41=DATE($N$1,1,6),$M$1+$A41=DATE($N$1,5,1),$M$1+$A41=DATE($N$1,10,3),$M$1+$A41=DATE($N$1,11,1),$M$1+$A41=DATE($N$1,12,24),$M$1+$A41=DATE($N$1,12,25),$M$1+$A41=DATE($N$1,12,26),$M$1+$A41=DATE($N$1,12,31),$M$1+$A41=$T$1-2,$M$1+$A41=$T$1+1,$M$1+$A41=$T$1+39,$M$1+$A41=$T$1+50,$M$1+$A41=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H41" s="105" t="n">
+      <c r="H41" s="102" t="n">
         <f aca="false">IF(ISBLANK($F41),ROUNDUP((($C41-$B41)*24-($D41/60)),1)+IF(ISBLANK($E41),0,$L$13)+IF(OR($G41="x",$G41="X"),$L$13,0),$L$13)</f>
         <v>3</v>
       </c>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
       <c r="K41" s="49"/>
       <c r="L41" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A41),2)&gt;5)</f>
@@ -3816,31 +3852,25 @@
       <c r="A42" s="99" t="n">
         <v>25</v>
       </c>
-      <c r="B42" s="100" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="C42" s="101" t="n">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="D42" s="102" t="n">
-        <v>30</v>
-      </c>
-      <c r="E42" s="103"/>
-      <c r="F42" s="104"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="101"/>
       <c r="G42" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A42),IF(AND(WEEKDAY($M$1+$A42,2)&lt;6,OR($M$1+$A42=DATE($N$1,1,1),$M$1+$A42=DATE($N$1,1,6),$M$1+$A42=DATE($N$1,5,1),$M$1+$A42=DATE($N$1,10,3),$M$1+$A42=DATE($N$1,11,1),$M$1+$A42=DATE($N$1,12,24),$M$1+$A42=DATE($N$1,12,25),$M$1+$A42=DATE($N$1,12,26),$M$1+$A42=DATE($N$1,12,31),$M$1+$A42=$T$1-2,$M$1+$A42=$T$1+1,$M$1+$A42=$T$1+39,$M$1+$A42=$T$1+50,$M$1+$A42=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H42" s="105" t="n">
+      <c r="H42" s="102" t="n">
         <f aca="false">IF(ISBLANK($F42),ROUNDUP((($C42-$B42)*24-($D42/60)),1)+IF(ISBLANK($E42),0,$L$13)+IF(OR($G42="x",$G42="X"),$L$13,0),$L$13)</f>
-        <v>3</v>
-      </c>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
       <c r="K42" s="49"/>
       <c r="L42" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A42),2)&gt;5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="95"/>
       <c r="N42" s="96"/>
@@ -3857,25 +3887,25 @@
       <c r="A43" s="99" t="n">
         <v>26</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="104"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="101"/>
       <c r="G43" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A43),IF(AND(WEEKDAY($M$1+$A43,2)&lt;6,OR($M$1+$A43=DATE($N$1,1,1),$M$1+$A43=DATE($N$1,1,6),$M$1+$A43=DATE($N$1,5,1),$M$1+$A43=DATE($N$1,10,3),$M$1+$A43=DATE($N$1,11,1),$M$1+$A43=DATE($N$1,12,24),$M$1+$A43=DATE($N$1,12,25),$M$1+$A43=DATE($N$1,12,26),$M$1+$A43=DATE($N$1,12,31),$M$1+$A43=$T$1-2,$M$1+$A43=$T$1+1,$M$1+$A43=$T$1+39,$M$1+$A43=$T$1+50,$M$1+$A43=$T$1+60)),"x",""),"")</f>
-        <v>x</v>
-      </c>
-      <c r="H43" s="105" t="n">
+        <v/>
+      </c>
+      <c r="H43" s="102" t="n">
         <f aca="false">IF(ISBLANK($F43),ROUNDUP((($C43-$B43)*24-($D43/60)),1)+IF(ISBLANK($E43),0,$L$13)+IF(OR($G43="x",$G43="X"),$L$13,0),$L$13)</f>
-        <v>1.83992640294388</v>
-      </c>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
       <c r="K43" s="49"/>
       <c r="L43" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A43),2)&gt;5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="95"/>
       <c r="N43" s="96"/>
@@ -3892,21 +3922,27 @@
       <c r="A44" s="99" t="n">
         <v>27</v>
       </c>
-      <c r="B44" s="100"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="104"/>
+      <c r="B44" s="87" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C44" s="88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="89" t="n">
+        <v>30</v>
+      </c>
+      <c r="E44" s="100"/>
+      <c r="F44" s="101"/>
       <c r="G44" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A44),IF(AND(WEEKDAY($M$1+$A44,2)&lt;6,OR($M$1+$A44=DATE($N$1,1,1),$M$1+$A44=DATE($N$1,1,6),$M$1+$A44=DATE($N$1,5,1),$M$1+$A44=DATE($N$1,10,3),$M$1+$A44=DATE($N$1,11,1),$M$1+$A44=DATE($N$1,12,24),$M$1+$A44=DATE($N$1,12,25),$M$1+$A44=DATE($N$1,12,26),$M$1+$A44=DATE($N$1,12,31),$M$1+$A44=$T$1-2,$M$1+$A44=$T$1+1,$M$1+$A44=$T$1+39,$M$1+$A44=$T$1+50,$M$1+$A44=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H44" s="105" t="n">
+      <c r="H44" s="102" t="n">
         <f aca="false">IF(ISBLANK($F44),ROUNDUP((($C44-$B44)*24-($D44/60)),1)+IF(ISBLANK($E44),0,$L$13)+IF(OR($G44="x",$G44="X"),$L$13,0),$L$13)</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
+        <v>2.5</v>
+      </c>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
       <c r="K44" s="49"/>
       <c r="L44" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A44),2)&gt;5)</f>
@@ -3927,25 +3963,25 @@
       <c r="A45" s="99" t="n">
         <v>28</v>
       </c>
-      <c r="B45" s="100"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="104"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="101"/>
       <c r="G45" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A45),IF(AND(WEEKDAY($M$1+$A45,2)&lt;6,OR($M$1+$A45=DATE($N$1,1,1),$M$1+$A45=DATE($N$1,1,6),$M$1+$A45=DATE($N$1,5,1),$M$1+$A45=DATE($N$1,10,3),$M$1+$A45=DATE($N$1,11,1),$M$1+$A45=DATE($N$1,12,24),$M$1+$A45=DATE($N$1,12,25),$M$1+$A45=DATE($N$1,12,26),$M$1+$A45=DATE($N$1,12,31),$M$1+$A45=$T$1-2,$M$1+$A45=$T$1+1,$M$1+$A45=$T$1+39,$M$1+$A45=$T$1+50,$M$1+$A45=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H45" s="105" t="n">
+      <c r="H45" s="102" t="n">
         <f aca="false">IF(ISBLANK($F45),ROUNDUP((($C45-$B45)*24-($D45/60)),1)+IF(ISBLANK($E45),0,$L$13)+IF(OR($G45="x",$G45="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
       <c r="K45" s="49"/>
       <c r="L45" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A45),2)&gt;5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="95"/>
       <c r="N45" s="96"/>
@@ -3958,29 +3994,29 @@
       <c r="U45" s="96"/>
       <c r="V45" s="97"/>
     </row>
-    <row r="46" s="98" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="98" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="99" t="n">
         <v>29</v>
       </c>
-      <c r="B46" s="100"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="104"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="101"/>
       <c r="G46" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A46),IF(AND(WEEKDAY($M$1+$A46,2)&lt;6,OR($M$1+$A46=DATE($N$1,1,1),$M$1+$A46=DATE($N$1,1,6),$M$1+$A46=DATE($N$1,5,1),$M$1+$A46=DATE($N$1,10,3),$M$1+$A46=DATE($N$1,11,1),$M$1+$A46=DATE($N$1,12,24),$M$1+$A46=DATE($N$1,12,25),$M$1+$A46=DATE($N$1,12,26),$M$1+$A46=DATE($N$1,12,31),$M$1+$A46=$T$1-2,$M$1+$A46=$T$1+1,$M$1+$A46=$T$1+39,$M$1+$A46=$T$1+50,$M$1+$A46=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H46" s="105" t="n">
+      <c r="H46" s="102" t="n">
         <f aca="false">IF(ISBLANK($F46),ROUNDUP((($C46-$B46)*24-($D46/60)),1)+IF(ISBLANK($E46),0,$L$13)+IF(OR($G46="x",$G46="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
       <c r="K46" s="49"/>
       <c r="L46" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A46),2)&gt;5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="95"/>
       <c r="N46" s="96"/>
@@ -3997,27 +4033,27 @@
       <c r="A47" s="99" t="n">
         <v>30</v>
       </c>
-      <c r="B47" s="100" t="n">
+      <c r="B47" s="87" t="n">
         <v>0.375</v>
       </c>
-      <c r="C47" s="101" t="n">
+      <c r="C47" s="88" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="D47" s="102" t="n">
+      <c r="D47" s="89" t="n">
         <v>30</v>
       </c>
-      <c r="E47" s="103"/>
-      <c r="F47" s="104"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="101"/>
       <c r="G47" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A47),IF(AND(WEEKDAY($M$1+$A47,2)&lt;6,OR($M$1+$A47=DATE($N$1,1,1),$M$1+$A47=DATE($N$1,1,6),$M$1+$A47=DATE($N$1,5,1),$M$1+$A47=DATE($N$1,10,3),$M$1+$A47=DATE($N$1,11,1),$M$1+$A47=DATE($N$1,12,24),$M$1+$A47=DATE($N$1,12,25),$M$1+$A47=DATE($N$1,12,26),$M$1+$A47=DATE($N$1,12,31),$M$1+$A47=$T$1-2,$M$1+$A47=$T$1+1,$M$1+$A47=$T$1+39,$M$1+$A47=$T$1+50,$M$1+$A47=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H47" s="105" t="n">
+      <c r="H47" s="102" t="n">
         <f aca="false">IF(ISBLANK($F47),ROUNDUP((($C47-$B47)*24-($D47/60)),1)+IF(ISBLANK($E47),0,$L$13)+IF(OR($G47="x",$G47="X"),$L$13,0),$L$13)</f>
         <v>3</v>
       </c>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
       <c r="K47" s="49"/>
       <c r="L47" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A47),2)&gt;5)</f>
@@ -4038,21 +4074,21 @@
       <c r="A48" s="99" t="n">
         <v>31</v>
       </c>
-      <c r="B48" s="108"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="113" t="str">
+      <c r="B48" s="105"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="110" t="str">
         <f aca="false">IF(ISNUMBER($A48),IF(AND(WEEKDAY($M$1+$A48,2)&lt;6,OR($M$1+$A48=DATE($N$1,1,1),$M$1+$A48=DATE($N$1,1,6),$M$1+$A48=DATE($N$1,5,1),$M$1+$A48=DATE($N$1,10,3),$M$1+$A48=DATE($N$1,11,1),$M$1+$A48=DATE($N$1,12,24),$M$1+$A48=DATE($N$1,12,25),$M$1+$A48=DATE($N$1,12,26),$M$1+$A48=DATE($N$1,12,31),$M$1+$A48=$T$1-2,$M$1+$A48=$T$1+1,$M$1+$A48=$T$1+39,$M$1+$A48=$T$1+50,$M$1+$A48=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H48" s="114" t="n">
+      <c r="H48" s="111" t="n">
         <f aca="false">IF(ISBLANK($F48),ROUNDUP((($C48-$B48)*24-($D48/60)),1)+IF(ISBLANK($E48),0,$L$13)+IF(OR($G48="x",$G48="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="115"/>
-      <c r="J48" s="115"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
       <c r="K48" s="49"/>
       <c r="L48" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A48),2)&gt;5)</f>
@@ -4070,18 +4106,18 @@
       <c r="V48" s="97"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="116" t="s">
+      <c r="E49" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
       <c r="H49" s="93" t="n">
         <f aca="false">SUM(H18:H48)</f>
-        <v>30.8399264029439</v>
-      </c>
-      <c r="I49" s="117"/>
-      <c r="J49" s="117"/>
-      <c r="K49" s="118"/>
+        <v>46.1798528058878</v>
+      </c>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="115"/>
       <c r="L49" s="39"/>
       <c r="M49" s="39"/>
       <c r="N49" s="96" t="str">
@@ -4098,17 +4134,17 @@
       <c r="V49" s="21"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="119" t="s">
+      <c r="E50" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="120"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="122" t="s">
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="J50" s="117"/>
-      <c r="K50" s="118"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="115"/>
       <c r="L50" s="39"/>
       <c r="M50" s="39"/>
       <c r="N50" s="96"/>
@@ -4122,18 +4158,18 @@
       <c r="V50" s="21"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="117"/>
-      <c r="E51" s="119" t="s">
+      <c r="A51" s="114"/>
+      <c r="E51" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="120"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="122" t="s">
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="J51" s="117"/>
-      <c r="K51" s="118"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="115"/>
       <c r="L51" s="39"/>
       <c r="M51" s="39"/>
       <c r="N51" s="20"/>
@@ -4147,24 +4183,24 @@
       <c r="V51" s="21"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="124" t="s">
+      <c r="A52" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="124"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="119" t="s">
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="105" t="n">
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="102" t="n">
         <f aca="false">IF($L$8=1,$L$10*7.8,$D$10)</f>
         <v>40</v>
       </c>
-      <c r="I52" s="117"/>
-      <c r="J52" s="117"/>
-      <c r="K52" s="118"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="115"/>
       <c r="L52" s="39"/>
       <c r="M52" s="39"/>
       <c r="N52" s="20"/>
@@ -4178,23 +4214,23 @@
       <c r="V52" s="21"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="125" t="s">
+      <c r="A53" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="126" t="s">
+      <c r="B53" s="121"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="127"/>
-      <c r="G53" s="128"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="122" t="s">
+      <c r="F53" s="124"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="J53" s="117"/>
-      <c r="K53" s="118"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="115"/>
       <c r="L53" s="39"/>
       <c r="M53" s="39"/>
       <c r="N53" s="20"/>
@@ -4208,21 +4244,21 @@
       <c r="V53" s="21"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="124"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="130" t="s">
+      <c r="B54" s="121"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="F54" s="117"/>
-      <c r="G54" s="117"/>
-      <c r="H54" s="131" t="n">
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="128" t="n">
         <f aca="false">H49+H50+H51-H52-H53</f>
-        <v>-9.16007359705612</v>
-      </c>
-      <c r="I54" s="117"/>
-      <c r="J54" s="117"/>
-      <c r="K54" s="118"/>
+        <v>6.17985280588776</v>
+      </c>
+      <c r="I54" s="114"/>
+      <c r="J54" s="114"/>
+      <c r="K54" s="115"/>
       <c r="L54" s="39"/>
       <c r="M54" s="39"/>
       <c r="N54" s="20"/>
@@ -4236,7 +4272,7 @@
       <c r="V54" s="21"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E55" s="132"/>
+      <c r="E55" s="129"/>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
       <c r="K55" s="18"/>
@@ -4253,13 +4289,13 @@
       <c r="V55" s="21"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="133" t="s">
+      <c r="A56" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="133"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="132"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="129"/>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
       <c r="K56" s="18"/>
@@ -4308,18 +4344,18 @@
       <c r="V58" s="21"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="133" t="s">
+      <c r="A59" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="133"/>
-      <c r="C59" s="133"/>
-      <c r="D59" s="133"/>
-      <c r="G59" s="133" t="s">
+      <c r="B59" s="130"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="G59" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="H59" s="133"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="133"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="130"/>
+      <c r="J59" s="130"/>
       <c r="K59" s="18"/>
       <c r="L59" s="19"/>
       <c r="M59" s="19"/>
@@ -4334,10 +4370,10 @@
       <c r="V59" s="21"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="124"/>
+      <c r="H60" s="121"/>
       <c r="K60" s="18"/>
-      <c r="L60" s="134"/>
-      <c r="M60" s="134"/>
+      <c r="L60" s="131"/>
+      <c r="M60" s="131"/>
       <c r="N60" s="18"/>
       <c r="O60" s="18"/>
       <c r="P60" s="18"/>
@@ -4348,10 +4384,10 @@
       <c r="U60" s="18"/>
     </row>
     <row r="61" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="135"/>
+      <c r="A61" s="132"/>
       <c r="K61" s="18"/>
-      <c r="L61" s="134"/>
-      <c r="M61" s="134"/>
+      <c r="L61" s="131"/>
+      <c r="M61" s="131"/>
       <c r="N61" s="18"/>
       <c r="O61" s="18"/>
       <c r="P61" s="18"/>
@@ -4361,70 +4397,70 @@
       <c r="T61" s="18"/>
       <c r="U61" s="18"/>
     </row>
-    <row r="62" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L62" s="136"/>
-      <c r="M62" s="136"/>
-    </row>
-    <row r="63" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L63" s="136"/>
-      <c r="M63" s="136"/>
-    </row>
-    <row r="64" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L64" s="136"/>
-      <c r="M64" s="136"/>
-    </row>
-    <row r="65" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L65" s="136"/>
-      <c r="M65" s="136"/>
-    </row>
-    <row r="66" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L66" s="136"/>
-      <c r="M66" s="136"/>
-    </row>
-    <row r="67" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L67" s="136"/>
-      <c r="M67" s="136"/>
-    </row>
-    <row r="68" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L68" s="136"/>
-      <c r="M68" s="136"/>
-    </row>
-    <row r="69" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L69" s="136"/>
-      <c r="M69" s="136"/>
-    </row>
-    <row r="70" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L70" s="136"/>
-      <c r="M70" s="136"/>
-    </row>
-    <row r="71" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L71" s="136"/>
-      <c r="M71" s="136"/>
-    </row>
-    <row r="72" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L72" s="136"/>
-      <c r="M72" s="136"/>
-    </row>
-    <row r="73" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L73" s="136"/>
-      <c r="M73" s="136"/>
-    </row>
-    <row r="74" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L74" s="136"/>
-      <c r="M74" s="136"/>
-    </row>
-    <row r="75" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L75" s="136"/>
-      <c r="M75" s="136"/>
-    </row>
-    <row r="76" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L76" s="136"/>
-      <c r="M76" s="136"/>
-    </row>
-    <row r="77" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L62" s="133"/>
+      <c r="M62" s="133"/>
+    </row>
+    <row r="63" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L63" s="133"/>
+      <c r="M63" s="133"/>
+    </row>
+    <row r="64" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L64" s="133"/>
+      <c r="M64" s="133"/>
+    </row>
+    <row r="65" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L65" s="133"/>
+      <c r="M65" s="133"/>
+    </row>
+    <row r="66" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L66" s="133"/>
+      <c r="M66" s="133"/>
+    </row>
+    <row r="67" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L67" s="133"/>
+      <c r="M67" s="133"/>
+    </row>
+    <row r="68" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L68" s="133"/>
+      <c r="M68" s="133"/>
+    </row>
+    <row r="69" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L69" s="133"/>
+      <c r="M69" s="133"/>
+    </row>
+    <row r="70" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L70" s="133"/>
+      <c r="M70" s="133"/>
+    </row>
+    <row r="71" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L71" s="133"/>
+      <c r="M71" s="133"/>
+    </row>
+    <row r="72" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L72" s="133"/>
+      <c r="M72" s="133"/>
+    </row>
+    <row r="73" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L73" s="133"/>
+      <c r="M73" s="133"/>
+    </row>
+    <row r="74" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L74" s="133"/>
+      <c r="M74" s="133"/>
+    </row>
+    <row r="75" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L75" s="133"/>
+      <c r="M75" s="133"/>
+    </row>
+    <row r="76" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L76" s="133"/>
+      <c r="M76" s="133"/>
+    </row>
+    <row r="77" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
-      <c r="L77" s="136"/>
-      <c r="M77" s="136"/>
+      <c r="L77" s="133"/>
+      <c r="M77" s="133"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" objects="true" selectLockedCells="true"/>
@@ -4656,13 +4692,13 @@
         <f aca="false">N(DATE(N1,MONTH(L1)+1,DAY(L1))-L1)</f>
         <v>31</v>
       </c>
-      <c r="V1" s="137"/>
+      <c r="V1" s="134"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -4671,7 +4707,7 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="137"/>
+      <c r="V2" s="134"/>
     </row>
     <row r="3" s="10" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
@@ -4799,7 +4835,7 @@
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="139" t="s">
+      <c r="G9" s="136" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="28" t="s">
@@ -5061,9 +5097,9 @@
       <c r="A18" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
       <c r="E18" s="90"/>
       <c r="F18" s="91"/>
       <c r="G18" s="92" t="str">
@@ -5096,27 +5132,27 @@
       <c r="A19" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="104"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
       <c r="G19" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A19),IF(AND(WEEKDAY($M$1+$A19,2)&lt;6,OR($M$1+$A19=DATE($N$1,1,1),$M$1+$A19=DATE($N$1,1,6),$M$1+$A19=DATE($N$1,5,1),$M$1+$A19=DATE($N$1,10,3),$M$1+$A19=DATE($N$1,11,1),$M$1+$A19=DATE($N$1,12,25),$M$1+$A19=DATE($N$1,12,26),$M$1+$A19=$T$1-2,$M$1+$A19=$T$1+1,$M$1+$A19=$T$1+39,$M$1+$A19=$T$1+50,$M$1+$A19=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H19" s="105" t="n">
+      <c r="H19" s="102" t="n">
         <f aca="false">IF(ISBLANK($F19),ROUNDUP((($C19-$B19)*24-($D19/60)),1)+IF(ISBLANK($E19),0,$L$13)+IF(OR($G19="x",$G19="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
       <c r="K19" s="49"/>
       <c r="L19" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A19),2)&gt;5)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="107"/>
+      <c r="M19" s="104"/>
       <c r="N19" s="96"/>
       <c r="O19" s="96"/>
       <c r="P19" s="96"/>
@@ -5131,21 +5167,21 @@
       <c r="A20" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A20),IF(AND(WEEKDAY($M$1+$A20,2)&lt;6,OR($M$1+$A20=DATE($N$1,1,1),$M$1+$A20=DATE($N$1,1,6),$M$1+$A20=DATE($N$1,5,1),$M$1+$A20=DATE($N$1,10,3),$M$1+$A20=DATE($N$1,11,1),$M$1+$A20=DATE($N$1,12,25),$M$1+$A20=DATE($N$1,12,26),$M$1+$A20=$T$1-2,$M$1+$A20=$T$1+1,$M$1+$A20=$T$1+39,$M$1+$A20=$T$1+50,$M$1+$A20=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H20" s="105" t="n">
+      <c r="H20" s="102" t="n">
         <f aca="false">IF(ISBLANK($F20),ROUNDUP((($C20-$B20)*24-($D20/60)),1)+IF(ISBLANK($E20),0,$L$13)+IF(OR($G20="x",$G20="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
       <c r="K20" s="49"/>
       <c r="L20" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A20),2)&gt;5)</f>
@@ -5166,21 +5202,21 @@
       <c r="A21" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A21),IF(AND(WEEKDAY($M$1+$A21,2)&lt;6,OR($M$1+$A21=DATE($N$1,1,1),$M$1+$A21=DATE($N$1,1,6),$M$1+$A21=DATE($N$1,5,1),$M$1+$A21=DATE($N$1,10,3),$M$1+$A21=DATE($N$1,11,1),$M$1+$A21=DATE($N$1,12,25),$M$1+$A21=DATE($N$1,12,26),$M$1+$A21=$T$1-2,$M$1+$A21=$T$1+1,$M$1+$A21=$T$1+39,$M$1+$A21=$T$1+50,$M$1+$A21=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H21" s="105" t="n">
+      <c r="H21" s="102" t="n">
         <f aca="false">IF(ISBLANK($F21),ROUNDUP((($C21-$B21)*24-($D21/60)),1)+IF(ISBLANK($E21),0,$L$13)+IF(OR($G21="x",$G21="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
       <c r="K21" s="49"/>
       <c r="L21" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A21),2)&gt;5)</f>
@@ -5201,21 +5237,21 @@
       <c r="A22" s="99" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A22),IF(AND(WEEKDAY($M$1+$A22,2)&lt;6,OR($M$1+$A22=DATE($N$1,1,1),$M$1+$A22=DATE($N$1,1,6),$M$1+$A22=DATE($N$1,5,1),$M$1+$A22=DATE($N$1,10,3),$M$1+$A22=DATE($N$1,11,1),$M$1+$A22=DATE($N$1,12,25),$M$1+$A22=DATE($N$1,12,26),$M$1+$A22=$T$1-2,$M$1+$A22=$T$1+1,$M$1+$A22=$T$1+39,$M$1+$A22=$T$1+50,$M$1+$A22=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H22" s="105" t="n">
+      <c r="H22" s="102" t="n">
         <f aca="false">IF(ISBLANK($F22),ROUNDUP((($C22-$B22)*24-($D22/60)),1)+IF(ISBLANK($E22),0,$L$13)+IF(OR($G22="x",$G22="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
       <c r="K22" s="49"/>
       <c r="L22" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A22),2)&gt;5)</f>
@@ -5236,21 +5272,21 @@
       <c r="A23" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A23),IF(AND(WEEKDAY($M$1+$A23,2)&lt;6,OR($M$1+$A23=DATE($N$1,1,1),$M$1+$A23=DATE($N$1,1,6),$M$1+$A23=DATE($N$1,5,1),$M$1+$A23=DATE($N$1,10,3),$M$1+$A23=DATE($N$1,11,1),$M$1+$A23=DATE($N$1,12,25),$M$1+$A23=DATE($N$1,12,26),$M$1+$A23=$T$1-2,$M$1+$A23=$T$1+1,$M$1+$A23=$T$1+39,$M$1+$A23=$T$1+50,$M$1+$A23=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H23" s="105" t="n">
+      <c r="H23" s="102" t="n">
         <f aca="false">IF(ISBLANK($F23),ROUNDUP((($C23-$B23)*24-($D23/60)),1)+IF(ISBLANK($E23),0,$L$13)+IF(OR($G23="x",$G23="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
       <c r="K23" s="49"/>
       <c r="L23" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A23),2)&gt;5)</f>
@@ -5271,21 +5307,21 @@
       <c r="A24" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
       <c r="G24" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A24),IF(AND(WEEKDAY($M$1+$A24,2)&lt;6,OR($M$1+$A24=DATE($N$1,1,1),$M$1+$A24=DATE($N$1,1,6),$M$1+$A24=DATE($N$1,5,1),$M$1+$A24=DATE($N$1,10,3),$M$1+$A24=DATE($N$1,11,1),$M$1+$A24=DATE($N$1,12,25),$M$1+$A24=DATE($N$1,12,26),$M$1+$A24=$T$1-2,$M$1+$A24=$T$1+1,$M$1+$A24=$T$1+39,$M$1+$A24=$T$1+50,$M$1+$A24=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H24" s="105" t="n">
+      <c r="H24" s="102" t="n">
         <f aca="false">IF(ISBLANK($F24),ROUNDUP((($C24-$B24)*24-($D24/60)),1)+IF(ISBLANK($E24),0,$L$13)+IF(OR($G24="x",$G24="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
       <c r="K24" s="49"/>
       <c r="L24" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A24),2)&gt;5)</f>
@@ -5306,21 +5342,21 @@
       <c r="A25" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="B25" s="100"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="104"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="101"/>
       <c r="G25" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A25),IF(AND(WEEKDAY($M$1+$A25,2)&lt;6,OR($M$1+$A25=DATE($N$1,1,1),$M$1+$A25=DATE($N$1,1,6),$M$1+$A25=DATE($N$1,5,1),$M$1+$A25=DATE($N$1,10,3),$M$1+$A25=DATE($N$1,11,1),$M$1+$A25=DATE($N$1,12,25),$M$1+$A25=DATE($N$1,12,26),$M$1+$A25=$T$1-2,$M$1+$A25=$T$1+1,$M$1+$A25=$T$1+39,$M$1+$A25=$T$1+50,$M$1+$A25=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H25" s="105" t="n">
+      <c r="H25" s="102" t="n">
         <f aca="false">IF(ISBLANK($F25),ROUNDUP((($C25-$B25)*24-($D25/60)),1)+IF(ISBLANK($E25),0,$L$13)+IF(OR($G25="x",$G25="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
       <c r="K25" s="49"/>
       <c r="L25" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A25),2)&gt;5)</f>
@@ -5341,21 +5377,21 @@
       <c r="A26" s="99" t="n">
         <v>9</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101"/>
       <c r="G26" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A26),IF(AND(WEEKDAY($M$1+$A26,2)&lt;6,OR($M$1+$A26=DATE($N$1,1,1),$M$1+$A26=DATE($N$1,1,6),$M$1+$A26=DATE($N$1,5,1),$M$1+$A26=DATE($N$1,10,3),$M$1+$A26=DATE($N$1,11,1),$M$1+$A26=DATE($N$1,12,25),$M$1+$A26=DATE($N$1,12,26),$M$1+$A26=$T$1-2,$M$1+$A26=$T$1+1,$M$1+$A26=$T$1+39,$M$1+$A26=$T$1+50,$M$1+$A26=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H26" s="105" t="n">
+      <c r="H26" s="102" t="n">
         <f aca="false">IF(ISBLANK($F26),ROUNDUP((($C26-$B26)*24-($D26/60)),1)+IF(ISBLANK($E26),0,$L$13)+IF(OR($G26="x",$G26="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
       <c r="K26" s="49"/>
       <c r="L26" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A26),2)&gt;5)</f>
@@ -5376,21 +5412,21 @@
       <c r="A27" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="B27" s="100"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="104"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="101"/>
       <c r="G27" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A27),IF(AND(WEEKDAY($M$1+$A27,2)&lt;6,OR($M$1+$A27=DATE($N$1,1,1),$M$1+$A27=DATE($N$1,1,6),$M$1+$A27=DATE($N$1,5,1),$M$1+$A27=DATE($N$1,10,3),$M$1+$A27=DATE($N$1,11,1),$M$1+$A27=DATE($N$1,12,25),$M$1+$A27=DATE($N$1,12,26),$M$1+$A27=$T$1-2,$M$1+$A27=$T$1+1,$M$1+$A27=$T$1+39,$M$1+$A27=$T$1+50,$M$1+$A27=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H27" s="105" t="n">
+      <c r="H27" s="102" t="n">
         <f aca="false">IF(ISBLANK($F27),ROUNDUP((($C27-$B27)*24-($D27/60)),1)+IF(ISBLANK($E27),0,$L$13)+IF(OR($G27="x",$G27="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
       <c r="K27" s="49"/>
       <c r="L27" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A27),2)&gt;5)</f>
@@ -5411,21 +5447,21 @@
       <c r="A28" s="99" t="n">
         <v>11</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="104"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
       <c r="G28" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A28),IF(AND(WEEKDAY($M$1+$A28,2)&lt;6,OR($M$1+$A28=DATE($N$1,1,1),$M$1+$A28=DATE($N$1,1,6),$M$1+$A28=DATE($N$1,5,1),$M$1+$A28=DATE($N$1,10,3),$M$1+$A28=DATE($N$1,11,1),$M$1+$A28=DATE($N$1,12,25),$M$1+$A28=DATE($N$1,12,26),$M$1+$A28=$T$1-2,$M$1+$A28=$T$1+1,$M$1+$A28=$T$1+39,$M$1+$A28=$T$1+50,$M$1+$A28=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H28" s="105" t="n">
+      <c r="H28" s="102" t="n">
         <f aca="false">IF(ISBLANK($F28),ROUNDUP((($C28-$B28)*24-($D28/60)),1)+IF(ISBLANK($E28),0,$L$13)+IF(OR($G28="x",$G28="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
       <c r="K28" s="49"/>
       <c r="L28" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A28),2)&gt;5)</f>
@@ -5446,21 +5482,21 @@
       <c r="A29" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="B29" s="100"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="104"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="101"/>
       <c r="G29" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A29),IF(AND(WEEKDAY($M$1+$A29,2)&lt;6,OR($M$1+$A29=DATE($N$1,1,1),$M$1+$A29=DATE($N$1,1,6),$M$1+$A29=DATE($N$1,5,1),$M$1+$A29=DATE($N$1,10,3),$M$1+$A29=DATE($N$1,11,1),$M$1+$A29=DATE($N$1,12,25),$M$1+$A29=DATE($N$1,12,26),$M$1+$A29=$T$1-2,$M$1+$A29=$T$1+1,$M$1+$A29=$T$1+39,$M$1+$A29=$T$1+50,$M$1+$A29=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H29" s="105" t="n">
+      <c r="H29" s="102" t="n">
         <f aca="false">IF(ISBLANK($F29),ROUNDUP((($C29-$B29)*24-($D29/60)),1)+IF(ISBLANK($E29),0,$L$13)+IF(OR($G29="x",$G29="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
       <c r="K29" s="49"/>
       <c r="L29" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A29),2)&gt;5)</f>
@@ -5481,21 +5517,21 @@
       <c r="A30" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="B30" s="100"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="104"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="101"/>
       <c r="G30" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A30),IF(AND(WEEKDAY($M$1+$A30,2)&lt;6,OR($M$1+$A30=DATE($N$1,1,1),$M$1+$A30=DATE($N$1,1,6),$M$1+$A30=DATE($N$1,5,1),$M$1+$A30=DATE($N$1,10,3),$M$1+$A30=DATE($N$1,11,1),$M$1+$A30=DATE($N$1,12,25),$M$1+$A30=DATE($N$1,12,26),$M$1+$A30=$T$1-2,$M$1+$A30=$T$1+1,$M$1+$A30=$T$1+39,$M$1+$A30=$T$1+50,$M$1+$A30=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H30" s="105" t="n">
+      <c r="H30" s="102" t="n">
         <f aca="false">IF(ISBLANK($F30),ROUNDUP((($C30-$B30)*24-($D30/60)),1)+IF(ISBLANK($E30),0,$L$13)+IF(OR($G30="x",$G30="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
       <c r="K30" s="49"/>
       <c r="L30" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A30),2)&gt;5)</f>
@@ -5516,21 +5552,21 @@
       <c r="A31" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="104"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="101"/>
       <c r="G31" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A31),IF(AND(WEEKDAY($M$1+$A31,2)&lt;6,OR($M$1+$A31=DATE($N$1,1,1),$M$1+$A31=DATE($N$1,1,6),$M$1+$A31=DATE($N$1,5,1),$M$1+$A31=DATE($N$1,10,3),$M$1+$A31=DATE($N$1,11,1),$M$1+$A31=DATE($N$1,12,25),$M$1+$A31=DATE($N$1,12,26),$M$1+$A31=$T$1-2,$M$1+$A31=$T$1+1,$M$1+$A31=$T$1+39,$M$1+$A31=$T$1+50,$M$1+$A31=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H31" s="105" t="n">
+      <c r="H31" s="102" t="n">
         <f aca="false">IF(ISBLANK($F31),ROUNDUP((($C31-$B31)*24-($D31/60)),1)+IF(ISBLANK($E31),0,$L$13)+IF(OR($G31="x",$G31="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
       <c r="K31" s="49"/>
       <c r="L31" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A31),2)&gt;5)</f>
@@ -5551,21 +5587,21 @@
       <c r="A32" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="104"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
       <c r="G32" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A32),IF(AND(WEEKDAY($M$1+$A32,2)&lt;6,OR($M$1+$A32=DATE($N$1,1,1),$M$1+$A32=DATE($N$1,1,6),$M$1+$A32=DATE($N$1,5,1),$M$1+$A32=DATE($N$1,10,3),$M$1+$A32=DATE($N$1,11,1),$M$1+$A32=DATE($N$1,12,25),$M$1+$A32=DATE($N$1,12,26),$M$1+$A32=$T$1-2,$M$1+$A32=$T$1+1,$M$1+$A32=$T$1+39,$M$1+$A32=$T$1+50,$M$1+$A32=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H32" s="105" t="n">
+      <c r="H32" s="102" t="n">
         <f aca="false">IF(ISBLANK($F32),ROUNDUP((($C32-$B32)*24-($D32/60)),1)+IF(ISBLANK($E32),0,$L$13)+IF(OR($G32="x",$G32="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
       <c r="K32" s="49"/>
       <c r="L32" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A32),2)&gt;5)</f>
@@ -5586,21 +5622,21 @@
       <c r="A33" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="104"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="101"/>
       <c r="G33" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A33),IF(AND(WEEKDAY($M$1+$A33,2)&lt;6,OR($M$1+$A33=DATE($N$1,1,1),$M$1+$A33=DATE($N$1,1,6),$M$1+$A33=DATE($N$1,5,1),$M$1+$A33=DATE($N$1,10,3),$M$1+$A33=DATE($N$1,11,1),$M$1+$A33=DATE($N$1,12,25),$M$1+$A33=DATE($N$1,12,26),$M$1+$A33=$T$1-2,$M$1+$A33=$T$1+1,$M$1+$A33=$T$1+39,$M$1+$A33=$T$1+50,$M$1+$A33=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H33" s="105" t="n">
+      <c r="H33" s="102" t="n">
         <f aca="false">IF(ISBLANK($F33),ROUNDUP((($C33-$B33)*24-($D33/60)),1)+IF(ISBLANK($E33),0,$L$13)+IF(OR($G33="x",$G33="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
       <c r="K33" s="49"/>
       <c r="L33" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A33),2)&gt;5)</f>
@@ -5621,21 +5657,21 @@
       <c r="A34" s="99" t="n">
         <v>17</v>
       </c>
-      <c r="B34" s="100"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="104"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="101"/>
       <c r="G34" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A34),IF(AND(WEEKDAY($M$1+$A34,2)&lt;6,OR($M$1+$A34=DATE($N$1,1,1),$M$1+$A34=DATE($N$1,1,6),$M$1+$A34=DATE($N$1,5,1),$M$1+$A34=DATE($N$1,10,3),$M$1+$A34=DATE($N$1,11,1),$M$1+$A34=DATE($N$1,12,25),$M$1+$A34=DATE($N$1,12,26),$M$1+$A34=$T$1-2,$M$1+$A34=$T$1+1,$M$1+$A34=$T$1+39,$M$1+$A34=$T$1+50,$M$1+$A34=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H34" s="105" t="n">
+      <c r="H34" s="102" t="n">
         <f aca="false">IF(ISBLANK($F34),ROUNDUP((($C34-$B34)*24-($D34/60)),1)+IF(ISBLANK($E34),0,$L$13)+IF(OR($G34="x",$G34="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
       <c r="K34" s="49"/>
       <c r="L34" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A34),2)&gt;5)</f>
@@ -5656,21 +5692,21 @@
       <c r="A35" s="99" t="n">
         <v>18</v>
       </c>
-      <c r="B35" s="100"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="104"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="101"/>
       <c r="G35" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A35),IF(AND(WEEKDAY($M$1+$A35,2)&lt;6,OR($M$1+$A35=DATE($N$1,1,1),$M$1+$A35=DATE($N$1,1,6),$M$1+$A35=DATE($N$1,5,1),$M$1+$A35=DATE($N$1,10,3),$M$1+$A35=DATE($N$1,11,1),$M$1+$A35=DATE($N$1,12,25),$M$1+$A35=DATE($N$1,12,26),$M$1+$A35=$T$1-2,$M$1+$A35=$T$1+1,$M$1+$A35=$T$1+39,$M$1+$A35=$T$1+50,$M$1+$A35=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H35" s="105" t="n">
+      <c r="H35" s="102" t="n">
         <f aca="false">IF(ISBLANK($F35),ROUNDUP((($C35-$B35)*24-($D35/60)),1)+IF(ISBLANK($E35),0,$L$13)+IF(OR($G35="x",$G35="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
       <c r="K35" s="49"/>
       <c r="L35" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A35),2)&gt;5)</f>
@@ -5691,21 +5727,21 @@
       <c r="A36" s="99" t="n">
         <v>19</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="104"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="101"/>
       <c r="G36" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A36),IF(AND(WEEKDAY($M$1+$A36,2)&lt;6,OR($M$1+$A36=DATE($N$1,1,1),$M$1+$A36=DATE($N$1,1,6),$M$1+$A36=DATE($N$1,5,1),$M$1+$A36=DATE($N$1,10,3),$M$1+$A36=DATE($N$1,11,1),$M$1+$A36=DATE($N$1,12,25),$M$1+$A36=DATE($N$1,12,26),$M$1+$A36=$T$1-2,$M$1+$A36=$T$1+1,$M$1+$A36=$T$1+39,$M$1+$A36=$T$1+50,$M$1+$A36=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H36" s="105" t="n">
+      <c r="H36" s="102" t="n">
         <f aca="false">IF(ISBLANK($F36),ROUNDUP((($C36-$B36)*24-($D36/60)),1)+IF(ISBLANK($E36),0,$L$13)+IF(OR($G36="x",$G36="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
       <c r="K36" s="49"/>
       <c r="L36" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A36),2)&gt;5)</f>
@@ -5726,21 +5762,21 @@
       <c r="A37" s="99" t="n">
         <v>20</v>
       </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="104"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="101"/>
       <c r="G37" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A37),IF(AND(WEEKDAY($M$1+$A37,2)&lt;6,OR($M$1+$A37=DATE($N$1,1,1),$M$1+$A37=DATE($N$1,1,6),$M$1+$A37=DATE($N$1,5,1),$M$1+$A37=DATE($N$1,10,3),$M$1+$A37=DATE($N$1,11,1),$M$1+$A37=DATE($N$1,12,25),$M$1+$A37=DATE($N$1,12,26),$M$1+$A37=$T$1-2,$M$1+$A37=$T$1+1,$M$1+$A37=$T$1+39,$M$1+$A37=$T$1+50,$M$1+$A37=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H37" s="105" t="n">
+      <c r="H37" s="102" t="n">
         <f aca="false">IF(ISBLANK($F37),ROUNDUP((($C37-$B37)*24-($D37/60)),1)+IF(ISBLANK($E37),0,$L$13)+IF(OR($G37="x",$G37="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
       <c r="K37" s="49"/>
       <c r="L37" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A37),2)&gt;5)</f>
@@ -5761,21 +5797,21 @@
       <c r="A38" s="99" t="n">
         <v>21</v>
       </c>
-      <c r="B38" s="100"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="104"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="101"/>
       <c r="G38" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A38),IF(AND(WEEKDAY($M$1+$A38,2)&lt;6,OR($M$1+$A38=DATE($N$1,1,1),$M$1+$A38=DATE($N$1,1,6),$M$1+$A38=DATE($N$1,5,1),$M$1+$A38=DATE($N$1,10,3),$M$1+$A38=DATE($N$1,11,1),$M$1+$A38=DATE($N$1,12,25),$M$1+$A38=DATE($N$1,12,26),$M$1+$A38=$T$1-2,$M$1+$A38=$T$1+1,$M$1+$A38=$T$1+39,$M$1+$A38=$T$1+50,$M$1+$A38=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H38" s="105" t="n">
+      <c r="H38" s="102" t="n">
         <f aca="false">IF(ISBLANK($F38),ROUNDUP((($C38-$B38)*24-($D38/60)),1)+IF(ISBLANK($E38),0,$L$13)+IF(OR($G38="x",$G38="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
       <c r="K38" s="49"/>
       <c r="L38" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A38),2)&gt;5)</f>
@@ -5796,21 +5832,21 @@
       <c r="A39" s="99" t="n">
         <v>22</v>
       </c>
-      <c r="B39" s="100"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="104"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="101"/>
       <c r="G39" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A39),IF(AND(WEEKDAY($M$1+$A39,2)&lt;6,OR($M$1+$A39=DATE($N$1,1,1),$M$1+$A39=DATE($N$1,1,6),$M$1+$A39=DATE($N$1,5,1),$M$1+$A39=DATE($N$1,10,3),$M$1+$A39=DATE($N$1,11,1),$M$1+$A39=DATE($N$1,12,25),$M$1+$A39=DATE($N$1,12,26),$M$1+$A39=$T$1-2,$M$1+$A39=$T$1+1,$M$1+$A39=$T$1+39,$M$1+$A39=$T$1+50,$M$1+$A39=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H39" s="105" t="n">
+      <c r="H39" s="102" t="n">
         <f aca="false">IF(ISBLANK($F39),ROUNDUP((($C39-$B39)*24-($D39/60)),1)+IF(ISBLANK($E39),0,$L$13)+IF(OR($G39="x",$G39="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
       <c r="K39" s="49"/>
       <c r="L39" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A39),2)&gt;5)</f>
@@ -5831,21 +5867,21 @@
       <c r="A40" s="99" t="n">
         <v>23</v>
       </c>
-      <c r="B40" s="100"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="104"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="101"/>
       <c r="G40" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A40),IF(AND(WEEKDAY($M$1+$A40,2)&lt;6,OR($M$1+$A40=DATE($N$1,1,1),$M$1+$A40=DATE($N$1,1,6),$M$1+$A40=DATE($N$1,5,1),$M$1+$A40=DATE($N$1,10,3),$M$1+$A40=DATE($N$1,11,1),$M$1+$A40=DATE($N$1,12,25),$M$1+$A40=DATE($N$1,12,26),$M$1+$A40=$T$1-2,$M$1+$A40=$T$1+1,$M$1+$A40=$T$1+39,$M$1+$A40=$T$1+50,$M$1+$A40=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H40" s="105" t="n">
+      <c r="H40" s="102" t="n">
         <f aca="false">IF(ISBLANK($F40),ROUNDUP((($C40-$B40)*24-($D40/60)),1)+IF(ISBLANK($E40),0,$L$13)+IF(OR($G40="x",$G40="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
       <c r="K40" s="49"/>
       <c r="L40" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A40),2)&gt;5)</f>
@@ -5866,21 +5902,21 @@
       <c r="A41" s="99" t="n">
         <v>24</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="104"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="101"/>
       <c r="G41" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A41),IF(AND(WEEKDAY($M$1+$A41,2)&lt;6,OR($M$1+$A41=DATE($N$1,1,1),$M$1+$A41=DATE($N$1,1,6),$M$1+$A41=DATE($N$1,5,1),$M$1+$A41=DATE($N$1,10,3),$M$1+$A41=DATE($N$1,11,1),$M$1+$A41=DATE($N$1,12,25),$M$1+$A41=DATE($N$1,12,26),$M$1+$A41=$T$1-2,$M$1+$A41=$T$1+1,$M$1+$A41=$T$1+39,$M$1+$A41=$T$1+50,$M$1+$A41=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H41" s="105" t="n">
+      <c r="H41" s="102" t="n">
         <f aca="false">IF(ISBLANK($F41),ROUNDUP((($C41-$B41)*24-($D41/60)),1)+IF(ISBLANK($E41),0,$L$13)+IF(OR($G41="x",$G41="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
       <c r="K41" s="49"/>
       <c r="L41" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A41),2)&gt;5)</f>
@@ -5901,21 +5937,21 @@
       <c r="A42" s="99" t="n">
         <v>25</v>
       </c>
-      <c r="B42" s="100"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="104"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="101"/>
       <c r="G42" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A42),IF(AND(WEEKDAY($M$1+$A42,2)&lt;6,OR($M$1+$A42=DATE($N$1,1,1),$M$1+$A42=DATE($N$1,1,6),$M$1+$A42=DATE($N$1,5,1),$M$1+$A42=DATE($N$1,10,3),$M$1+$A42=DATE($N$1,11,1),$M$1+$A42=DATE($N$1,12,25),$M$1+$A42=DATE($N$1,12,26),$M$1+$A42=$T$1-2,$M$1+$A42=$T$1+1,$M$1+$A42=$T$1+39,$M$1+$A42=$T$1+50,$M$1+$A42=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H42" s="105" t="n">
+      <c r="H42" s="102" t="n">
         <f aca="false">IF(ISBLANK($F42),ROUNDUP((($C42-$B42)*24-($D42/60)),1)+IF(ISBLANK($E42),0,$L$13)+IF(OR($G42="x",$G42="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
       <c r="K42" s="49"/>
       <c r="L42" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A42),2)&gt;5)</f>
@@ -5936,21 +5972,21 @@
       <c r="A43" s="99" t="n">
         <v>26</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="104"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="101"/>
       <c r="G43" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A43),IF(AND(WEEKDAY($M$1+$A43,2)&lt;6,OR($M$1+$A43=DATE($N$1,1,1),$M$1+$A43=DATE($N$1,1,6),$M$1+$A43=DATE($N$1,5,1),$M$1+$A43=DATE($N$1,10,3),$M$1+$A43=DATE($N$1,11,1),$M$1+$A43=DATE($N$1,12,25),$M$1+$A43=DATE($N$1,12,26),$M$1+$A43=$T$1-2,$M$1+$A43=$T$1+1,$M$1+$A43=$T$1+39,$M$1+$A43=$T$1+50,$M$1+$A43=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H43" s="105" t="n">
+      <c r="H43" s="102" t="n">
         <f aca="false">IF(ISBLANK($F43),ROUNDUP((($C43-$B43)*24-($D43/60)),1)+IF(ISBLANK($E43),0,$L$13)+IF(OR($G43="x",$G43="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
       <c r="K43" s="49"/>
       <c r="L43" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A43),2)&gt;5)</f>
@@ -5971,21 +6007,21 @@
       <c r="A44" s="99" t="n">
         <v>27</v>
       </c>
-      <c r="B44" s="100"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="104"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="101"/>
       <c r="G44" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A44),IF(AND(WEEKDAY($M$1+$A44,2)&lt;6,OR($M$1+$A44=DATE($N$1,1,1),$M$1+$A44=DATE($N$1,1,6),$M$1+$A44=DATE($N$1,5,1),$M$1+$A44=DATE($N$1,10,3),$M$1+$A44=DATE($N$1,11,1),$M$1+$A44=DATE($N$1,12,25),$M$1+$A44=DATE($N$1,12,26),$M$1+$A44=$T$1-2,$M$1+$A44=$T$1+1,$M$1+$A44=$T$1+39,$M$1+$A44=$T$1+50,$M$1+$A44=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H44" s="105" t="n">
+      <c r="H44" s="102" t="n">
         <f aca="false">IF(ISBLANK($F44),ROUNDUP((($C44-$B44)*24-($D44/60)),1)+IF(ISBLANK($E44),0,$L$13)+IF(OR($G44="x",$G44="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
       <c r="K44" s="49"/>
       <c r="L44" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A44),2)&gt;5)</f>
@@ -6006,21 +6042,21 @@
       <c r="A45" s="99" t="n">
         <v>28</v>
       </c>
-      <c r="B45" s="100"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="104"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="101"/>
       <c r="G45" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A45),IF(AND(WEEKDAY($M$1+$A45,2)&lt;6,OR($M$1+$A45=DATE($N$1,1,1),$M$1+$A45=DATE($N$1,1,6),$M$1+$A45=DATE($N$1,5,1),$M$1+$A45=DATE($N$1,10,3),$M$1+$A45=DATE($N$1,11,1),$M$1+$A45=DATE($N$1,12,25),$M$1+$A45=DATE($N$1,12,26),$M$1+$A45=$T$1-2,$M$1+$A45=$T$1+1,$M$1+$A45=$T$1+39,$M$1+$A45=$T$1+50,$M$1+$A45=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H45" s="105" t="n">
+      <c r="H45" s="102" t="n">
         <f aca="false">IF(ISBLANK($F45),ROUNDUP((($C45-$B45)*24-($D45/60)),1)+IF(ISBLANK($E45),0,$L$13)+IF(OR($G45="x",$G45="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
       <c r="K45" s="49"/>
       <c r="L45" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A45),2)&gt;5)</f>
@@ -6041,21 +6077,21 @@
       <c r="A46" s="99" t="n">
         <v>29</v>
       </c>
-      <c r="B46" s="100"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="104"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="101"/>
       <c r="G46" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A46),IF(AND(WEEKDAY($M$1+$A46,2)&lt;6,OR($M$1+$A46=DATE($N$1,1,1),$M$1+$A46=DATE($N$1,1,6),$M$1+$A46=DATE($N$1,5,1),$M$1+$A46=DATE($N$1,10,3),$M$1+$A46=DATE($N$1,11,1),$M$1+$A46=DATE($N$1,12,25),$M$1+$A46=DATE($N$1,12,26),$M$1+$A46=$T$1-2,$M$1+$A46=$T$1+1,$M$1+$A46=$T$1+39,$M$1+$A46=$T$1+50,$M$1+$A46=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H46" s="105" t="n">
+      <c r="H46" s="102" t="n">
         <f aca="false">IF(ISBLANK($F46),ROUNDUP((($C46-$B46)*24-($D46/60)),1)+IF(ISBLANK($E46),0,$L$13)+IF(OR($G46="x",$G46="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
       <c r="K46" s="49"/>
       <c r="L46" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A46),2)&gt;5)</f>
@@ -6076,21 +6112,21 @@
       <c r="A47" s="99" t="n">
         <v>30</v>
       </c>
-      <c r="B47" s="100"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="104"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="101"/>
       <c r="G47" s="92" t="str">
         <f aca="false">IF(ISNUMBER($A47),IF(AND(WEEKDAY($M$1+$A47,2)&lt;6,OR($M$1+$A47=DATE($N$1,1,1),$M$1+$A47=DATE($N$1,1,6),$M$1+$A47=DATE($N$1,5,1),$M$1+$A47=DATE($N$1,10,3),$M$1+$A47=DATE($N$1,11,1),$M$1+$A47=DATE($N$1,12,25),$M$1+$A47=DATE($N$1,12,26),$M$1+$A47=$T$1-2,$M$1+$A47=$T$1+1,$M$1+$A47=$T$1+39,$M$1+$A47=$T$1+50,$M$1+$A47=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H47" s="105" t="n">
+      <c r="H47" s="102" t="n">
         <f aca="false">IF(ISBLANK($F47),ROUNDUP((($C47-$B47)*24-($D47/60)),1)+IF(ISBLANK($E47),0,$L$13)+IF(OR($G47="x",$G47="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
       <c r="K47" s="49"/>
       <c r="L47" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A47),2)&gt;5)</f>
@@ -6111,21 +6147,21 @@
       <c r="A48" s="99" t="n">
         <v>31</v>
       </c>
-      <c r="B48" s="108"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="113" t="str">
+      <c r="B48" s="105"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="110" t="str">
         <f aca="false">IF(ISNUMBER($A48),IF(AND(WEEKDAY($M$1+$A48,2)&lt;6,OR($M$1+$A48=DATE($N$1,1,1),$M$1+$A48=DATE($N$1,1,6),$M$1+$A48=DATE($N$1,5,1),$M$1+$A48=DATE($N$1,10,3),$M$1+$A48=DATE($N$1,11,1),$M$1+$A48=DATE($N$1,12,25),$M$1+$A48=DATE($N$1,12,26),$M$1+$A48=$T$1-2,$M$1+$A48=$T$1+1,$M$1+$A48=$T$1+39,$M$1+$A48=$T$1+50,$M$1+$A48=$T$1+60)),"x",""),"")</f>
         <v/>
       </c>
-      <c r="H48" s="114" t="n">
+      <c r="H48" s="111" t="n">
         <f aca="false">IF(ISBLANK($F48),ROUNDUP((($C48-$B48)*24-($D48/60)),1)+IF(ISBLANK($E48),0,$L$13)+IF(OR($G48="x",$G48="X"),$L$13,0),$L$13)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="115"/>
-      <c r="J48" s="115"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
       <c r="K48" s="49"/>
       <c r="L48" s="60" t="n">
         <f aca="false">INT(WEEKDAY(DATE($J$9,$I$9,$A48),2)&gt;5)</f>
@@ -6143,18 +6179,18 @@
       <c r="V48" s="97"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="116" t="s">
+      <c r="E49" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
       <c r="H49" s="93" t="n">
         <f aca="false">SUM(H18:H48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="117"/>
-      <c r="J49" s="117"/>
-      <c r="K49" s="118"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="115"/>
       <c r="L49" s="39"/>
       <c r="M49" s="39"/>
       <c r="N49" s="96" t="str">
@@ -6171,17 +6207,17 @@
       <c r="V49" s="21"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="119" t="s">
+      <c r="E50" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="120"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="122" t="s">
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="J50" s="117"/>
-      <c r="K50" s="118"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="115"/>
       <c r="L50" s="39"/>
       <c r="M50" s="39"/>
       <c r="N50" s="96"/>
@@ -6195,18 +6231,18 @@
       <c r="V50" s="21"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="117"/>
-      <c r="E51" s="119" t="s">
+      <c r="A51" s="114"/>
+      <c r="E51" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="120"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="122" t="s">
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="J51" s="117"/>
-      <c r="K51" s="118"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="115"/>
       <c r="L51" s="39"/>
       <c r="M51" s="39"/>
       <c r="N51" s="20"/>
@@ -6220,24 +6256,24 @@
       <c r="V51" s="21"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="124" t="s">
+      <c r="A52" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="124"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="119" t="s">
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="105" t="n">
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="102" t="n">
         <f aca="false">IF($L$8=1,$L$10*7.8,$D$10)</f>
         <v>40</v>
       </c>
-      <c r="I52" s="117"/>
-      <c r="J52" s="117"/>
-      <c r="K52" s="118"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="115"/>
       <c r="L52" s="39"/>
       <c r="M52" s="39"/>
       <c r="N52" s="20"/>
@@ -6251,23 +6287,23 @@
       <c r="V52" s="21"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="125" t="s">
+      <c r="A53" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="126" t="s">
+      <c r="B53" s="121"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="127"/>
-      <c r="G53" s="128"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="122" t="s">
+      <c r="F53" s="124"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="J53" s="117"/>
-      <c r="K53" s="118"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="115"/>
       <c r="L53" s="39"/>
       <c r="M53" s="39"/>
       <c r="N53" s="20"/>
@@ -6281,21 +6317,21 @@
       <c r="V53" s="21"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="124"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="130" t="s">
+      <c r="B54" s="121"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="F54" s="117"/>
-      <c r="G54" s="117"/>
-      <c r="H54" s="131" t="n">
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="128" t="n">
         <f aca="false">H49+H50+H51-H52-H53</f>
         <v>-40</v>
       </c>
-      <c r="I54" s="117"/>
-      <c r="J54" s="117"/>
-      <c r="K54" s="118"/>
+      <c r="I54" s="114"/>
+      <c r="J54" s="114"/>
+      <c r="K54" s="115"/>
       <c r="L54" s="39"/>
       <c r="M54" s="39"/>
       <c r="N54" s="20"/>
@@ -6309,7 +6345,7 @@
       <c r="V54" s="21"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E55" s="132"/>
+      <c r="E55" s="129"/>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
       <c r="K55" s="18"/>
@@ -6326,13 +6362,13 @@
       <c r="V55" s="21"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="133" t="s">
+      <c r="A56" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="133"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="132"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="129"/>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
       <c r="K56" s="18"/>
@@ -6381,18 +6417,18 @@
       <c r="V58" s="21"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="133" t="s">
+      <c r="A59" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="133"/>
-      <c r="C59" s="133"/>
-      <c r="D59" s="133"/>
-      <c r="G59" s="133" t="s">
+      <c r="B59" s="130"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="G59" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="H59" s="133"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="133"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="130"/>
+      <c r="J59" s="130"/>
       <c r="K59" s="18"/>
       <c r="L59" s="19"/>
       <c r="M59" s="19"/>
@@ -6407,10 +6443,10 @@
       <c r="V59" s="21"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="124"/>
+      <c r="H60" s="121"/>
       <c r="K60" s="18"/>
-      <c r="L60" s="134"/>
-      <c r="M60" s="134"/>
+      <c r="L60" s="131"/>
+      <c r="M60" s="131"/>
       <c r="N60" s="18"/>
       <c r="O60" s="18"/>
       <c r="P60" s="18"/>
@@ -6421,10 +6457,10 @@
       <c r="U60" s="18"/>
     </row>
     <row r="61" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="135"/>
+      <c r="A61" s="132"/>
       <c r="K61" s="18"/>
-      <c r="L61" s="134"/>
-      <c r="M61" s="134"/>
+      <c r="L61" s="131"/>
+      <c r="M61" s="131"/>
       <c r="N61" s="18"/>
       <c r="O61" s="18"/>
       <c r="P61" s="18"/>
@@ -6434,70 +6470,70 @@
       <c r="T61" s="18"/>
       <c r="U61" s="18"/>
     </row>
-    <row r="62" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L62" s="136"/>
-      <c r="M62" s="136"/>
-    </row>
-    <row r="63" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L63" s="136"/>
-      <c r="M63" s="136"/>
-    </row>
-    <row r="64" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L64" s="136"/>
-      <c r="M64" s="136"/>
-    </row>
-    <row r="65" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L65" s="136"/>
-      <c r="M65" s="136"/>
-    </row>
-    <row r="66" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L66" s="136"/>
-      <c r="M66" s="136"/>
-    </row>
-    <row r="67" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L67" s="136"/>
-      <c r="M67" s="136"/>
-    </row>
-    <row r="68" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L68" s="136"/>
-      <c r="M68" s="136"/>
-    </row>
-    <row r="69" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L69" s="136"/>
-      <c r="M69" s="136"/>
-    </row>
-    <row r="70" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L70" s="136"/>
-      <c r="M70" s="136"/>
-    </row>
-    <row r="71" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L71" s="136"/>
-      <c r="M71" s="136"/>
-    </row>
-    <row r="72" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L72" s="136"/>
-      <c r="M72" s="136"/>
-    </row>
-    <row r="73" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L73" s="136"/>
-      <c r="M73" s="136"/>
-    </row>
-    <row r="74" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L74" s="136"/>
-      <c r="M74" s="136"/>
-    </row>
-    <row r="75" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L75" s="136"/>
-      <c r="M75" s="136"/>
-    </row>
-    <row r="76" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L76" s="136"/>
-      <c r="M76" s="136"/>
-    </row>
-    <row r="77" s="135" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L62" s="133"/>
+      <c r="M62" s="133"/>
+    </row>
+    <row r="63" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L63" s="133"/>
+      <c r="M63" s="133"/>
+    </row>
+    <row r="64" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L64" s="133"/>
+      <c r="M64" s="133"/>
+    </row>
+    <row r="65" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L65" s="133"/>
+      <c r="M65" s="133"/>
+    </row>
+    <row r="66" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L66" s="133"/>
+      <c r="M66" s="133"/>
+    </row>
+    <row r="67" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L67" s="133"/>
+      <c r="M67" s="133"/>
+    </row>
+    <row r="68" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L68" s="133"/>
+      <c r="M68" s="133"/>
+    </row>
+    <row r="69" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L69" s="133"/>
+      <c r="M69" s="133"/>
+    </row>
+    <row r="70" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L70" s="133"/>
+      <c r="M70" s="133"/>
+    </row>
+    <row r="71" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L71" s="133"/>
+      <c r="M71" s="133"/>
+    </row>
+    <row r="72" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L72" s="133"/>
+      <c r="M72" s="133"/>
+    </row>
+    <row r="73" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L73" s="133"/>
+      <c r="M73" s="133"/>
+    </row>
+    <row r="74" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L74" s="133"/>
+      <c r="M74" s="133"/>
+    </row>
+    <row r="75" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L75" s="133"/>
+      <c r="M75" s="133"/>
+    </row>
+    <row r="76" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L76" s="133"/>
+      <c r="M76" s="133"/>
+    </row>
+    <row r="77" s="132" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
-      <c r="L77" s="136"/>
-      <c r="M77" s="136"/>
+      <c r="L77" s="133"/>
+      <c r="M77" s="133"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" objects="true" selectLockedCells="true"/>
